--- a/spreadsheet/macrofree/aro_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.pt.xlsx
@@ -7266,6 +7266,11 @@
           <t>Não verificado</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gerenciamento de identidades e acesso</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/Azure/review-checklists/main/checklists/</t>
@@ -7298,6 +7303,11 @@
           <t>Abrir</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Há um item de ação associado a essa verificação</t>
@@ -7320,6 +7330,11 @@
           <t>Cumprido</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gestão de operações</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
@@ -7337,6 +7352,11 @@
           <t>Não é necessário</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Automação de Plataformas</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
@@ -7352,6 +7372,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.pt.xlsx
@@ -1687,11 +1687,7 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
         </is>
       </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
@@ -1737,11 +1733,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
         </is>
       </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
@@ -1787,11 +1779,7 @@
           <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
@@ -1837,11 +1825,7 @@
           <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
         </is>
       </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
@@ -1887,11 +1871,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
@@ -1983,11 +1963,6 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
@@ -2033,11 +2008,6 @@
           <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
-        </is>
-      </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
@@ -2083,11 +2053,6 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
@@ -2133,11 +2098,6 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
@@ -2183,11 +2143,6 @@
           <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
@@ -2233,11 +2188,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
         </is>
       </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
@@ -2283,11 +2234,7 @@
           <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
@@ -2563,11 +2510,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
         </is>
       </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
@@ -2613,11 +2556,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
         </is>
       </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
@@ -2663,11 +2602,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.pt.xlsx
@@ -1161,15 +1161,11 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Defina projetos OpenShift para restringir o privilégio RBAC e isolar cargas de trabalho em seu cluster.</t>
+          <t>Ao usar a autenticação AAD, remova o usuário kubeadmin do cluster.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1178,7 +1174,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
+          <t>https://docs.openshift.com/container-platform/4.14/authentication/remove-kubeadmin.html</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1182,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
+          <t>adfec5f9-a82d-46e9-a8d1-5a0c7fed5d15</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,13 +1203,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Defina as funções RBAC necessárias no OpenShift com escopo definido para um projeto ou cluster.</t>
+          <t>Defina projetos OpenShift para restringir o privilégio RBAC e isolar cargas de trabalho em seu cluster.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1224,7 +1220,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1228,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
+          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1249,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Minimize o número de usuários que têm direitos de administrador e acesso a segredos.</t>
+          <t>Defina as funções RBAC necessárias no OpenShift com escopo definido para um projeto ou cluster.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1266,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1274,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
+          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciamento de Identidades Privilegiadas no AAD para usuários ARO com funções privilegiadas.</t>
+          <t>Minimize o número de usuários que têm direitos de administrador e acesso a segredos.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1316,7 +1312,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1324,7 +1320,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
+          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1335,23 +1331,23 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>DDoS</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use a Proteção de Rede/IP contra DDoS do Azure para proteger a rede virtual que você usa para o cluster ARO, a menos que você use o Firewall do Azure ou o WAF em uma assinatura centralizada</t>
+          <t>Use o Gerenciamento de Identidades Privilegiadas no AAD para usuários ARO com funções privilegiadas.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1362,7 +1358,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1370,7 +1366,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
+          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1386,18 +1382,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>DDoS</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Todos os aplicativos Web configurados para usar uma entrada devem usar criptografia TLS e não devem permitir acesso por HTTP não criptografado.</t>
+          <t>Use a Proteção de Rede/IP contra DDoS do Azure para proteger a rede virtual que você usa para o cluster ARO, a menos que você use o Firewall do Azure ou o WAF em uma assinatura centralizada</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1416,7 +1412,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>35bda433-24f1-4481-8533-182aa5174269</t>
+          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1428,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com WAF para publicar com segurança aplicativos ARO na Internet, especialmente em ambientes de várias regiões.</t>
+          <t>Todos os aplicativos Web configurados para usar uma entrada devem usar criptografia TLS e não devem permitir acesso por HTTP não criptografado.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,7 +1450,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1462,7 +1458,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
+          <t>35bda433-24f1-4481-8533-182aa5174269</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Se estiver expondo um aplicativo no ARO com o Azure Front Door, use o link privado para conectar o Front Door ao roteador ARO.</t>
+          <t>Use o Azure Front Door com WAF para publicar com segurança aplicativos ARO na Internet, especialmente em ambientes de várias regiões.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1500,7 +1496,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1508,7 +1504,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
+          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1529,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Se sua política de segurança exigir que você inspecione todo o tráfego de saída da Internet gerado no cluster ARO, proteja o tráfego de rede de saída usando o Firewall do Azure ou um NVA.</t>
+          <t>Se estiver expondo um aplicativo no ARO com o Azure Front Door, use o link privado para conectar o Front Door ao roteador ARO.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1542,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1550,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>be985190-4838-435c-a86b-b2912155a114</t>
+          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,18 +1566,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Acesso privado</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Se sua política de segurança exigir que você use um endereço IP privado para a API do OpenShift, implante um cluster ARO privado.</t>
+          <t>Se sua política de segurança exigir que você inspecione todo o tráfego de saída da Internet gerado no cluster ARO, proteja o tráfego de rede de saída usando o Firewall do Azure ou um NVA.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1588,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1596,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
+          <t>be985190-4838-435c-a86b-b2912155a114</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1621,13 +1617,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado do Azure para proteger conexões de rede com serviços gerenciados do Azure, inclusive com o Registro de Contêiner do Azure.</t>
+          <t>Se sua política de segurança exigir que você use um endereço IP privado para a API do OpenShift, implante um cluster ARO privado.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1638,7 +1634,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1646,7 +1642,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
+          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1657,23 +1653,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Gestão de operações</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Acesso privado</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo de monitoramento usando a integração integrada Prometheus, OpenShift Logging ou Container Insights.</t>
+          <t>Use o Link Privado do Azure para proteger conexões de rede com serviços gerenciados do Azure, inclusive com o Registro de Contêiner do Azure.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,19 +1680,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
+          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1717,13 +1709,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de entrega de aplicativos por meio de práticas de DevOps e soluções de CI/CD, como Pipelines/GitOps fornecidos pelo OpenShift.</t>
+          <t>Estabeleça um processo de monitoramento usando a integração integrada Prometheus, OpenShift Logging ou Container Insights.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1734,19 +1726,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
+          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1767,13 +1755,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Sempre que possível, remova o estado de serviço de dentro dos contêineres. Em vez disso, use uma plataforma como serviço (PaaS) do Azure que ofereça suporte à replicação de várias regiões.</t>
+          <t>Automatize o processo de entrega de aplicativos por meio de práticas de DevOps e soluções de CI/CD, como Pipelines/GitOps fornecidos pelo OpenShift.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1784,19 +1772,15 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
+          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1817,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use o armazenamento RWX com a classe de armazenamento de Arquivos do Azure incorporada.</t>
+          <t>Sempre que possível, remova o estado de serviço de dentro dos contêineres. Em vez disso, use uma plataforma como serviço (PaaS) do Azure que ofereça suporte à replicação de várias regiões.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1834,19 +1818,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/design-principles/managed-services</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
+          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1862,18 +1842,18 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use solicitações de pod e limites para gerenciar os recursos de computação em um cluster.</t>
+          <t>Use o armazenamento RWX com a classe de armazenamento de Arquivos do Azure incorporada.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1884,19 +1864,15 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
+          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1917,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Impor cotas de recursos em projetos.</t>
+          <t>Use solicitações de pod e limites para gerenciar os recursos de computação em um cluster.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1934,7 +1910,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1942,7 +1918,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
+          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1963,13 +1939,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Defina ClusterAutoScaler e MachineAutoScaler para dimensionar máquinas quando o cluster ficar sem recursos para oferecer suporte a mais implantações.</t>
+          <t>Impor cotas de recursos em projetos.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1980,19 +1956,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
+          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2008,12 +1979,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use tamanhos de máquina virtual grandes o suficiente para conter várias instâncias de contêiner para que você obtenha os benefícios do aumento da densidade, mas não tão grande que seu cluster não possa lidar com a carga de trabalho de um nó com falha.</t>
+          <t>Defina ClusterAutoScaler e MachineAutoScaler para dimensionar máquinas quando o cluster ficar sem recursos para oferecer suporte a mais implantações.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2030,19 +2001,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
+          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2063,7 +2029,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implante verificações de integridade da máquina para reparar automaticamente máquinas danificadas em um pool de máquinas.</t>
+          <t>Use tamanhos de máquina virtual grandes o suficiente para conter várias instâncias de contêiner para que você obtenha os benefícios do aumento da densidade, mas não tão grande que seu cluster não possa lidar com a carga de trabalho de um nó com falha.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2080,19 +2046,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
+          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,7 +2074,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use um sistema de alertas para fornecer notificações quando as coisas precisarem de ação direta: alertas de métrica do Container Insights ou interface do usuário de alerta integrada.</t>
+          <t>Implante verificações de integridade da máquina para reparar automaticamente máquinas danificadas em um pool de máquinas.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2130,19 +2091,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
+          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2163,7 +2119,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que o cluster seja criado em uma região que ofereça suporte a AZs e crie um conjunto de máquinas para cada AZ.</t>
+          <t>Use um sistema de alertas para fornecer notificações quando as coisas precisarem de ação direta: alertas de métrica do Container Insights ou interface do usuário de alerta integrada.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2180,19 +2136,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
+          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2213,13 +2164,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Crie conjuntos de máquinas de infraestrutura para armazenar componentes de infraestrutura. Aplique rótulos Kubernetes específicos a essas máquinas e, em seguida, atualize os componentes de infraestrutura para serem executados somente nessas máquinas.</t>
+          <t>Certifique-se de que o cluster seja criado em uma região que ofereça suporte a AZs e crie um conjunto de máquinas para cada AZ.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2230,19 +2181,15 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
+          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2263,13 +2210,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Crie backup de aplicativos e planeje a restauração e inclua volumes persistentes no backup.</t>
+          <t>Crie conjuntos de máquinas de infraestrutura para armazenar componentes de infraestrutura. Aplique rótulos Kubernetes específicos a essas máquinas e, em seguida, atualize os componentes de infraestrutura para serem executados somente nessas máquinas.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2280,19 +2227,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
+          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2313,13 +2256,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Use prioridades de pod, para que, em caso de recursos limitados, os pods mais críticos sejam executados.</t>
+          <t>Crie backup de aplicativos e planeje a restauração e inclua volumes persistentes no backup.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,7 +2273,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2338,7 +2281,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
+          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2354,12 +2297,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Regule as funções de cluster usando plug-ins de admissão, que são comumente usados para impor políticas de segurança, limitações de recursos ou requisitos de configuração.</t>
+          <t>Use prioridades de pod, para que, em caso de recursos limitados, os pods mais críticos sejam executados.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2376,7 +2319,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2384,7 +2327,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
+          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2405,7 +2348,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Armazene suas imagens de contêiner no Registro de Contêiner do Azure e replique geograficamente o Registro para cada região.</t>
+          <t>Regule as funções de cluster usando plug-ins de admissão, que são comumente usados para impor políticas de segurança, limitações de recursos ou requisitos de configuração.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2422,7 +2365,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2430,7 +2373,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
+          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,18 +2389,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Carga</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Otimize os valores de solicitação de CPU e memória e maximize a eficiência dos recursos de cluster usando o autoscaler de pod vertical.</t>
+          <t>Armazene suas imagens de contêiner no Registro de Contêiner do Azure e replique geograficamente o Registro para cada região.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2468,7 +2411,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2476,7 +2419,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
+          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2497,7 +2440,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Adicione testes de integridade aos seus pods para monitorar a integridade do aplicativo. Certifique-se de que os pods contenham vivacidadeProbe e prontidãoProbe. Use testes de inicialização para determinar o ponto em que o aplicativo foi iniciado.</t>
+          <t>Otimize os valores de solicitação de CPU e memória e maximize a eficiência dos recursos de cluster usando o autoscaler de pod vertical.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2514,7 +2457,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2522,7 +2465,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
+          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2543,7 +2486,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Dimensione pods para atender à demanda usando o autoscaler de pod horizontal.</t>
+          <t>Adicione testes de integridade aos seus pods para monitorar a integridade do aplicativo. Certifique-se de que os pods contenham vivacidadeProbe e prontidãoProbe. Use testes de inicialização para determinar o ponto em que o aplicativo foi iniciado.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2560,19 +2503,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
+          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2593,7 +2532,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Use orçamentos de interrupção para garantir que o número necessário de réplicas de pod exista para lidar com a carga esperada do aplicativo.</t>
+          <t>Dimensione pods para atender à demanda usando o autoscaler de pod horizontal.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2610,19 +2549,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
+          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2643,7 +2578,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Use restrições de topologia de pod para agendar automaticamente pods em nós em todo o cluster.</t>
+          <t>Use orçamentos de interrupção para garantir que o número necessário de réplicas de pod exista para lidar com a carga esperada do aplicativo.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2660,19 +2595,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
+          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2683,7 +2614,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataformas</t>
+          <t>Gestão de operações</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2693,13 +2624,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Considere estratégias azuis/verdes ou canárias para implantar novas versões do aplicativo.</t>
+          <t>Use restrições de topologia de pod para agendar automaticamente pods em nós em todo o cluster.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2710,7 +2641,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2718,7 +2649,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
+          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2739,7 +2670,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Red Hat OpenShift GitOps. O Red Hat OpenShift GitOps usa o Argo CD para manter os recursos do cluster e oferecer suporte ao CI/CD do aplicativo.</t>
+          <t>Considere estratégias azuis/verdes ou canárias para implantar novas versões do aplicativo.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2756,7 +2687,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2764,7 +2695,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
+          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2775,23 +2706,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Plano de controle</t>
+          <t>Carga</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Mantenha seus clusters na versão mais recente do OpenShift para evitar possíveis problemas de segurança ou atualização.</t>
+          <t>Considere usar o Red Hat OpenShift GitOps. O Red Hat OpenShift GitOps usa o Argo CD para manter os recursos do cluster e oferecer suporte ao CI/CD do aplicativo.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2802,7 +2733,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2810,7 +2741,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
+          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2831,7 +2762,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Conecte clusters do Azure Red Hat OpenShift ao Kubernetes habilitado para Azure Arc.</t>
+          <t>Mantenha seus clusters na versão mais recente do OpenShift para evitar possíveis problemas de segurança ou atualização.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2848,14 +2779,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
+          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2871,18 +2802,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Plano de controle</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Para clusters do Azure Red Hat OpenShift 4, os dados etcd não são criptografados por padrão, mas é recomendável habilitar a criptografia etcd para fornecer outra camada de segurança de dados.</t>
+          <t>Conecte clusters do Azure Red Hat OpenShift ao Kubernetes habilitado para Azure Arc.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2893,7 +2824,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2901,7 +2832,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
+          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2917,18 +2848,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Postura</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Use o Microsoft Defender for Containers com suporte via Kubernetes habilitado para Arc para proteger clusters, contêineres e aplicativos.</t>
+          <t>Para clusters do Azure Red Hat OpenShift 4, os dados etcd não são criptografados por padrão, mas é recomendável habilitar a criptografia etcd para fornecer outra camada de segurança de dados.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2939,7 +2870,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2947,7 +2878,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
+          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2963,12 +2894,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Postura</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos que exigem acesso a informações confidenciais, use uma entidade de serviço e o AKV Secrets Provider com a extensão para clusters Kubernetes habilitados para Arc.</t>
+          <t>Use o Microsoft Defender for Containers com suporte via Kubernetes habilitado para Arc para proteger clusters, contêineres e aplicativos.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2985,14 +2916,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
+          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3008,12 +2939,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Carga</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Acesso seguro do pod aos recursos. Forneça o menor número de permissões e evite usar escalonamento raiz ou privilegiado.</t>
+          <t>Para aplicativos que exigem acesso a informações confidenciais, use uma entidade de serviço e o AKV Secrets Provider com a extensão para clusters Kubernetes habilitados para Arc.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3030,14 +2961,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
+          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3058,7 +2989,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Monitore e imponha a configuração usando a Extensão de Política do Azure.</t>
+          <t>Acesso seguro do pod aos recursos. Forneça o menor número de permissões e evite usar escalonamento raiz ou privilegiado.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3075,7 +3006,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3083,7 +3014,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
+          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3104,13 +3035,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Analise suas imagens em busca de vulnerabilidades com o Microsoft Defender ou qualquer outra solução de varredura de imagens.</t>
+          <t>Monitore e imponha a configuração usando a Extensão de Política do Azure.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3121,7 +3052,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3129,7 +3060,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
+          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3150,13 +3081,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Implante uma instância dedicada e privada do Registro de Contêiner do Azure em cada assinatura da zona de aterrissagem.</t>
+          <t>Analise suas imagens em busca de vulnerabilidades com o Microsoft Defender ou qualquer outra solução de varredura de imagens.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3167,7 +3098,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3175,7 +3106,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3184,16 +3115,45 @@
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Carga</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Implante uma instância dedicada e privada do Registro de Contêiner do Azure em cada assinatura da zona de aterrissagem.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -7177,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/aro_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.pt.xlsx
@@ -1161,15 +1161,11 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Defina projetos OpenShift para restringir o privilégio RBAC e isolar cargas de trabalho em seu cluster.</t>
+          <t>Ao usar a autenticação AAD, remova o usuário kubeadmin do cluster.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1178,7 +1174,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
+          <t>https://docs.openshift.com/container-platform/4.14/authentication/remove-kubeadmin.html</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1182,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
+          <t>adfec5f9-a82d-46e9-a8d1-5a0c7fed5d15</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,13 +1203,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Defina as funções RBAC necessárias no OpenShift com escopo definido para um projeto ou cluster.</t>
+          <t>Defina projetos OpenShift para restringir o privilégio RBAC e isolar cargas de trabalho em seu cluster.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1224,7 +1220,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1228,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
+          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1249,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Minimize o número de usuários que têm direitos de administrador e acesso a segredos.</t>
+          <t>Defina as funções RBAC necessárias no OpenShift com escopo definido para um projeto ou cluster.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1266,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1274,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
+          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciamento de Identidades Privilegiadas no AAD para usuários ARO com funções privilegiadas.</t>
+          <t>Minimize o número de usuários que têm direitos de administrador e acesso a segredos.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1316,7 +1312,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1324,7 +1320,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
+          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1335,23 +1331,23 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>DDoS</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use a Proteção de Rede/IP contra DDoS do Azure para proteger a rede virtual que você usa para o cluster ARO, a menos que você use o Firewall do Azure ou o WAF em uma assinatura centralizada</t>
+          <t>Use o Gerenciamento de Identidades Privilegiadas no AAD para usuários ARO com funções privilegiadas.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1362,7 +1358,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1370,7 +1366,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
+          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1386,18 +1382,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>DDoS</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Todos os aplicativos Web configurados para usar uma entrada devem usar criptografia TLS e não devem permitir acesso por HTTP não criptografado.</t>
+          <t>Use a Proteção de Rede/IP contra DDoS do Azure para proteger a rede virtual que você usa para o cluster ARO, a menos que você use o Firewall do Azure ou o WAF em uma assinatura centralizada</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1416,7 +1412,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>35bda433-24f1-4481-8533-182aa5174269</t>
+          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1428,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com WAF para publicar com segurança aplicativos ARO na Internet, especialmente em ambientes de várias regiões.</t>
+          <t>Todos os aplicativos Web configurados para usar uma entrada devem usar criptografia TLS e não devem permitir acesso por HTTP não criptografado.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,7 +1450,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1462,7 +1458,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
+          <t>35bda433-24f1-4481-8533-182aa5174269</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Se estiver expondo um aplicativo no ARO com o Azure Front Door, use o link privado para conectar o Front Door ao roteador ARO.</t>
+          <t>Use o Azure Front Door com WAF para publicar com segurança aplicativos ARO na Internet, especialmente em ambientes de várias regiões.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1500,7 +1496,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1508,7 +1504,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
+          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1529,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Se sua política de segurança exigir que você inspecione todo o tráfego de saída da Internet gerado no cluster ARO, proteja o tráfego de rede de saída usando o Firewall do Azure ou um NVA.</t>
+          <t>Se estiver expondo um aplicativo no ARO com o Azure Front Door, use o link privado para conectar o Front Door ao roteador ARO.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1542,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1550,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>be985190-4838-435c-a86b-b2912155a114</t>
+          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,18 +1566,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Acesso privado</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Se sua política de segurança exigir que você use um endereço IP privado para a API do OpenShift, implante um cluster ARO privado.</t>
+          <t>Se sua política de segurança exigir que você inspecione todo o tráfego de saída da Internet gerado no cluster ARO, proteja o tráfego de rede de saída usando o Firewall do Azure ou um NVA.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1588,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1596,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
+          <t>be985190-4838-435c-a86b-b2912155a114</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1621,13 +1617,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado do Azure para proteger conexões de rede com serviços gerenciados do Azure, inclusive com o Registro de Contêiner do Azure.</t>
+          <t>Se sua política de segurança exigir que você use um endereço IP privado para a API do OpenShift, implante um cluster ARO privado.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1638,7 +1634,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1646,7 +1642,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
+          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1657,23 +1653,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Gestão de operações</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Acesso privado</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo de monitoramento usando a integração integrada Prometheus, OpenShift Logging ou Container Insights.</t>
+          <t>Use o Link Privado do Azure para proteger conexões de rede com serviços gerenciados do Azure, inclusive com o Registro de Contêiner do Azure.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,19 +1680,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
+          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1717,13 +1709,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de entrega de aplicativos por meio de práticas de DevOps e soluções de CI/CD, como Pipelines/GitOps fornecidos pelo OpenShift.</t>
+          <t>Estabeleça um processo de monitoramento usando a integração integrada Prometheus, OpenShift Logging ou Container Insights.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1734,19 +1726,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
+          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1767,13 +1755,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Sempre que possível, remova o estado de serviço de dentro dos contêineres. Em vez disso, use uma plataforma como serviço (PaaS) do Azure que ofereça suporte à replicação de várias regiões.</t>
+          <t>Automatize o processo de entrega de aplicativos por meio de práticas de DevOps e soluções de CI/CD, como Pipelines/GitOps fornecidos pelo OpenShift.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1784,19 +1772,15 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
+          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1817,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use o armazenamento RWX com a classe de armazenamento de Arquivos do Azure incorporada.</t>
+          <t>Sempre que possível, remova o estado de serviço de dentro dos contêineres. Em vez disso, use uma plataforma como serviço (PaaS) do Azure que ofereça suporte à replicação de várias regiões.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1834,19 +1818,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/design-principles/managed-services</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
+          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1862,18 +1842,18 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use solicitações de pod e limites para gerenciar os recursos de computação em um cluster.</t>
+          <t>Use o armazenamento RWX com a classe de armazenamento de Arquivos do Azure incorporada.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1884,19 +1864,15 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
+          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1917,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Impor cotas de recursos em projetos.</t>
+          <t>Use solicitações de pod e limites para gerenciar os recursos de computação em um cluster.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1934,7 +1910,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1942,7 +1918,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
+          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1963,13 +1939,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Defina ClusterAutoScaler e MachineAutoScaler para dimensionar máquinas quando o cluster ficar sem recursos para oferecer suporte a mais implantações.</t>
+          <t>Impor cotas de recursos em projetos.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1980,19 +1956,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
+          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2008,12 +1979,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use tamanhos de máquina virtual grandes o suficiente para conter várias instâncias de contêiner para que você obtenha os benefícios do aumento da densidade, mas não tão grande que seu cluster não possa lidar com a carga de trabalho de um nó com falha.</t>
+          <t>Defina ClusterAutoScaler e MachineAutoScaler para dimensionar máquinas quando o cluster ficar sem recursos para oferecer suporte a mais implantações.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2030,19 +2001,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
+          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2063,7 +2029,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implante verificações de integridade da máquina para reparar automaticamente máquinas danificadas em um pool de máquinas.</t>
+          <t>Use tamanhos de máquina virtual grandes o suficiente para conter várias instâncias de contêiner para que você obtenha os benefícios do aumento da densidade, mas não tão grande que seu cluster não possa lidar com a carga de trabalho de um nó com falha.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2080,19 +2046,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
+          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,7 +2074,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use um sistema de alertas para fornecer notificações quando as coisas precisarem de ação direta: alertas de métrica do Container Insights ou interface do usuário de alerta integrada.</t>
+          <t>Implante verificações de integridade da máquina para reparar automaticamente máquinas danificadas em um pool de máquinas.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2130,19 +2091,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
+          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2163,7 +2119,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que o cluster seja criado em uma região que ofereça suporte a AZs e crie um conjunto de máquinas para cada AZ.</t>
+          <t>Use um sistema de alertas para fornecer notificações quando as coisas precisarem de ação direta: alertas de métrica do Container Insights ou interface do usuário de alerta integrada.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2180,19 +2136,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
+          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2213,13 +2164,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Crie conjuntos de máquinas de infraestrutura para armazenar componentes de infraestrutura. Aplique rótulos Kubernetes específicos a essas máquinas e, em seguida, atualize os componentes de infraestrutura para serem executados somente nessas máquinas.</t>
+          <t>Certifique-se de que o cluster seja criado em uma região que ofereça suporte a AZs e crie um conjunto de máquinas para cada AZ.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2230,19 +2181,15 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
+          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2263,13 +2210,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Crie backup de aplicativos e planeje a restauração e inclua volumes persistentes no backup.</t>
+          <t>Crie conjuntos de máquinas de infraestrutura para armazenar componentes de infraestrutura. Aplique rótulos Kubernetes específicos a essas máquinas e, em seguida, atualize os componentes de infraestrutura para serem executados somente nessas máquinas.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2280,19 +2227,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
+          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2313,13 +2256,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Use prioridades de pod, para que, em caso de recursos limitados, os pods mais críticos sejam executados.</t>
+          <t>Crie backup de aplicativos e planeje a restauração e inclua volumes persistentes no backup.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,7 +2273,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2338,7 +2281,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
+          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2354,12 +2297,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Regule as funções de cluster usando plug-ins de admissão, que são comumente usados para impor políticas de segurança, limitações de recursos ou requisitos de configuração.</t>
+          <t>Use prioridades de pod, para que, em caso de recursos limitados, os pods mais críticos sejam executados.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2376,7 +2319,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2384,7 +2327,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
+          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2405,7 +2348,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Armazene suas imagens de contêiner no Registro de Contêiner do Azure e replique geograficamente o Registro para cada região.</t>
+          <t>Regule as funções de cluster usando plug-ins de admissão, que são comumente usados para impor políticas de segurança, limitações de recursos ou requisitos de configuração.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2422,7 +2365,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2430,7 +2373,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
+          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,18 +2389,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Carga</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Otimize os valores de solicitação de CPU e memória e maximize a eficiência dos recursos de cluster usando o autoscaler de pod vertical.</t>
+          <t>Armazene suas imagens de contêiner no Registro de Contêiner do Azure e replique geograficamente o Registro para cada região.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2468,7 +2411,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2476,7 +2419,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
+          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2497,7 +2440,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Adicione testes de integridade aos seus pods para monitorar a integridade do aplicativo. Certifique-se de que os pods contenham vivacidadeProbe e prontidãoProbe. Use testes de inicialização para determinar o ponto em que o aplicativo foi iniciado.</t>
+          <t>Otimize os valores de solicitação de CPU e memória e maximize a eficiência dos recursos de cluster usando o autoscaler de pod vertical.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2514,7 +2457,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2522,7 +2465,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
+          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2543,7 +2486,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Dimensione pods para atender à demanda usando o autoscaler de pod horizontal.</t>
+          <t>Adicione testes de integridade aos seus pods para monitorar a integridade do aplicativo. Certifique-se de que os pods contenham vivacidadeProbe e prontidãoProbe. Use testes de inicialização para determinar o ponto em que o aplicativo foi iniciado.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2560,19 +2503,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
+          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2593,7 +2532,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Use orçamentos de interrupção para garantir que o número necessário de réplicas de pod exista para lidar com a carga esperada do aplicativo.</t>
+          <t>Dimensione pods para atender à demanda usando o autoscaler de pod horizontal.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2610,19 +2549,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
+          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2643,7 +2578,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Use restrições de topologia de pod para agendar automaticamente pods em nós em todo o cluster.</t>
+          <t>Use orçamentos de interrupção para garantir que o número necessário de réplicas de pod exista para lidar com a carga esperada do aplicativo.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2660,19 +2595,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
+          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2683,7 +2614,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataformas</t>
+          <t>Gestão de operações</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2693,13 +2624,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Considere estratégias azuis/verdes ou canárias para implantar novas versões do aplicativo.</t>
+          <t>Use restrições de topologia de pod para agendar automaticamente pods em nós em todo o cluster.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2710,7 +2641,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2718,7 +2649,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
+          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2739,7 +2670,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Red Hat OpenShift GitOps. O Red Hat OpenShift GitOps usa o Argo CD para manter os recursos do cluster e oferecer suporte ao CI/CD do aplicativo.</t>
+          <t>Considere estratégias azuis/verdes ou canárias para implantar novas versões do aplicativo.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2756,7 +2687,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2764,7 +2695,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
+          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2775,23 +2706,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Plano de controle</t>
+          <t>Carga</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Mantenha seus clusters na versão mais recente do OpenShift para evitar possíveis problemas de segurança ou atualização.</t>
+          <t>Considere usar o Red Hat OpenShift GitOps. O Red Hat OpenShift GitOps usa o Argo CD para manter os recursos do cluster e oferecer suporte ao CI/CD do aplicativo.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2802,7 +2733,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2810,7 +2741,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
+          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2831,7 +2762,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Conecte clusters do Azure Red Hat OpenShift ao Kubernetes habilitado para Azure Arc.</t>
+          <t>Mantenha seus clusters na versão mais recente do OpenShift para evitar possíveis problemas de segurança ou atualização.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2848,14 +2779,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
+          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2871,18 +2802,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Plano de controle</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Para clusters do Azure Red Hat OpenShift 4, os dados etcd não são criptografados por padrão, mas é recomendável habilitar a criptografia etcd para fornecer outra camada de segurança de dados.</t>
+          <t>Conecte clusters do Azure Red Hat OpenShift ao Kubernetes habilitado para Azure Arc.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2893,7 +2824,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2901,7 +2832,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
+          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2917,18 +2848,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Postura</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Use o Microsoft Defender for Containers com suporte via Kubernetes habilitado para Arc para proteger clusters, contêineres e aplicativos.</t>
+          <t>Para clusters do Azure Red Hat OpenShift 4, os dados etcd não são criptografados por padrão, mas é recomendável habilitar a criptografia etcd para fornecer outra camada de segurança de dados.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2939,7 +2870,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2947,7 +2878,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
+          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2963,12 +2894,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Postura</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos que exigem acesso a informações confidenciais, use uma entidade de serviço e o AKV Secrets Provider com a extensão para clusters Kubernetes habilitados para Arc.</t>
+          <t>Use o Microsoft Defender for Containers com suporte via Kubernetes habilitado para Arc para proteger clusters, contêineres e aplicativos.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2985,14 +2916,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
+          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3008,12 +2939,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Carga</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Acesso seguro do pod aos recursos. Forneça o menor número de permissões e evite usar escalonamento raiz ou privilegiado.</t>
+          <t>Para aplicativos que exigem acesso a informações confidenciais, use uma entidade de serviço e o AKV Secrets Provider com a extensão para clusters Kubernetes habilitados para Arc.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3030,14 +2961,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
+          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3058,7 +2989,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Monitore e imponha a configuração usando a Extensão de Política do Azure.</t>
+          <t>Acesso seguro do pod aos recursos. Forneça o menor número de permissões e evite usar escalonamento raiz ou privilegiado.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3075,7 +3006,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3083,7 +3014,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
+          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3104,13 +3035,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Analise suas imagens em busca de vulnerabilidades com o Microsoft Defender ou qualquer outra solução de varredura de imagens.</t>
+          <t>Monitore e imponha a configuração usando a Extensão de Política do Azure.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3121,7 +3052,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3129,7 +3060,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
+          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3150,13 +3081,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Implante uma instância dedicada e privada do Registro de Contêiner do Azure em cada assinatura da zona de aterrissagem.</t>
+          <t>Analise suas imagens em busca de vulnerabilidades com o Microsoft Defender ou qualquer outra solução de varredura de imagens.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3167,7 +3098,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3175,7 +3106,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3184,16 +3115,45 @@
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Carga</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Implante uma instância dedicada e privada do Registro de Contêiner do Azure em cada assinatura da zona de aterrissagem.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -7177,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7349,7 +7309,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Não é necessário</t>
+          <t>Risco aceito</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
